--- a/biology/Botanique/Salix_myricoides/Salix_myricoides.xlsx
+++ b/biology/Botanique/Salix_myricoides/Salix_myricoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix myricoides est une espèce de saule de la famille des Salicaceae, originaire de l'Amérique du Nord.
 </t>
@@ -511,14 +523,16 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Salix myricoides  Muhl. var. myricoides (Bayberry willow)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Salix myricoides  Muhl. var. myricoides (Bayberry willow).
 Salix cordata Michx. var. glaucophylla Bebb
 Salix cordata Michx. var. myricoides (Muhl.) Carey
 Salix glaucophylla (Bebb) Bebb
 Salix glaucophylloides Fern.
-Salix glaucophylloides Fern. var. glaucophylla (Bebb) Schneid[2].</t>
+Salix glaucophylloides Fern. var. glaucophylla (Bebb) Schneid.</t>
         </is>
       </c>
     </row>
@@ -546,12 +560,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix myricoides, le saule tamaris, se présente comme un arbuste buissonnant de 0,5 à 3 mètres de haut[3].
-Les feuilles pétiolées mesurent de 35 à 110 mm de long sur 11 à 46 mm de large. L'écorce de l'arbre adulte est fine et lisse. Les rameaux sont brunâtres, jaunes ou rouges, parfois faiblement glauques. L'espèce se rencontre en Nouvelle-Angleterre, en particulier dans le Maine où elle est classée espèce menacée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix myricoides, le saule tamaris, se présente comme un arbuste buissonnant de 0,5 à 3 mètres de haut.
+Les feuilles pétiolées mesurent de 35 à 110 mm de long sur 11 à 46 mm de large. L'écorce de l'arbre adulte est fine et lisse. Les rameaux sont brunâtres, jaunes ou rouges, parfois faiblement glauques. L'espèce se rencontre en Nouvelle-Angleterre, en particulier dans le Maine où elle est classée espèce menacée.
 La floraison est précoce : elle a lieu dès début avril, elle peut être jaune ou rouge..
-De nombreuses hybridations sont rapportées[3].
+De nombreuses hybridations sont rapportées.
 </t>
         </is>
       </c>
